--- a/config_9.28/activity_ty_task_config.xlsx
+++ b/config_9.28/activity_ty_task_config.xlsx
@@ -2348,10 +2348,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>每天在游戏中累计购买3次2498元</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3054,6 +3050,10 @@
       </rPr>
       <t>68,169,170,171,172,173,174,175,176</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3934,13 +3934,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="38" t="s">
         <v>477</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>478</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -3958,7 +3958,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4285,19 +4285,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>479</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -7034,10 +7034,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>311</v>
@@ -7095,7 +7095,7 @@
         <v>329</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>311</v>
@@ -7150,10 +7150,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="H101" s="41" t="s">
         <v>442</v>
-      </c>
-      <c r="H101" s="41" t="s">
-        <v>443</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>311</v>
@@ -7208,10 +7208,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="H103" s="41" t="s">
         <v>444</v>
-      </c>
-      <c r="H103" s="41" t="s">
-        <v>445</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>311</v>
@@ -7266,10 +7266,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="H105" s="41" t="s">
         <v>446</v>
-      </c>
-      <c r="H105" s="41" t="s">
-        <v>447</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>240</v>
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H118" s="42" t="s">
         <v>348</v>
@@ -8087,7 +8087,7 @@
         <v>373</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -8153,19 +8153,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="H139" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="H139" s="54" t="s">
-        <v>401</v>
-      </c>
       <c r="I139" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8179,19 +8179,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E140" s="52">
         <v>1</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8205,19 +8205,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8231,19 +8231,19 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H142" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8257,19 +8257,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8283,19 +8283,19 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8309,19 +8309,19 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E145" s="52">
         <v>1</v>
       </c>
       <c r="G145" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H145" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8335,19 +8335,19 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="E146" s="52">
+        <v>1</v>
+      </c>
+      <c r="G146" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="E146" s="52">
-        <v>1</v>
-      </c>
-      <c r="G146" s="54" t="s">
-        <v>400</v>
-      </c>
       <c r="H146" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8361,19 +8361,19 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H147" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="I147" s="54" t="s">
         <v>407</v>
-      </c>
-      <c r="I147" s="54" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8387,19 +8387,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8413,19 +8413,19 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8439,19 +8439,19 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8465,19 +8465,19 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8491,19 +8491,19 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8517,19 +8517,19 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8543,19 +8543,19 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8569,19 +8569,19 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8595,19 +8595,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8621,13 +8621,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H157" s="54" t="s">
         <v>369</v>
@@ -8647,13 +8647,13 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H158" s="54" t="s">
         <v>370</v>
@@ -8673,13 +8673,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>265</v>
@@ -8699,19 +8699,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H160" s="54" t="s">
         <v>372</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8725,19 +8725,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8751,19 +8751,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8777,19 +8777,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H163" s="54" t="s">
         <v>369</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8803,19 +8803,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H164" s="54" t="s">
         <v>370</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8829,19 +8829,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8855,19 +8855,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H166" s="54" t="s">
         <v>372</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8881,19 +8881,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8907,19 +8907,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -8933,19 +8933,19 @@
         <v>500000</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H169" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -8959,19 +8959,19 @@
         <v>10000000</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -8985,19 +8985,19 @@
         <v>30000000</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -9011,19 +9011,19 @@
         <v>50000000</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E172" s="3">
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -9037,19 +9037,19 @@
         <v>100000000</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E173" s="3">
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -9063,19 +9063,19 @@
         <v>200000000</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E174" s="3">
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -9089,19 +9089,19 @@
         <v>500000000</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E175" s="3">
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I175" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -9115,19 +9115,19 @@
         <v>800000000</v>
       </c>
       <c r="D176" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E176" s="3">
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I176" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -9141,19 +9141,19 @@
         <v>1000000000</v>
       </c>
       <c r="D177" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E177" s="3">
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H177" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="I177" s="42" t="s">
         <v>474</v>
-      </c>
-      <c r="I177" s="42" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/config_9.28/activity_ty_task_config.xlsx
+++ b/config_9.28/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="506">
   <si>
     <t>index|索引</t>
   </si>
@@ -3054,6 +3054,210 @@
   </si>
   <si>
     <t>96,97,98,99,100,101,102,103</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_hlttby</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_byam</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游"捕鱼奥秘"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下载并登陆新游"欢乐天天捕鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早餐福利（9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-10:00在线)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐福利（12:00-13:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐福利（18:00-19:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>link|链接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>77,180,181,182</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>178,180,181,182</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3647,10 +3851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3946,6 +4150,57 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3955,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4300,6 +4555,66 @@
         <v>479</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4309,11 +4624,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T177"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A169:A177"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4325,22 +4640,22 @@
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="86.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="32.25" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="3"/>
+    <col min="9" max="10" width="28.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="86.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="27.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="32.25" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -4369,40 +4684,43 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4428,14 +4746,15 @@
         <v>67</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="8"/>
+      <c r="K2" s="5"/>
+      <c r="O2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4461,16 +4780,17 @@
         <v>67</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="21"/>
-      <c r="S3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="21"/>
       <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4496,14 +4816,15 @@
         <v>67</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="21"/>
-      <c r="S4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="21"/>
       <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4529,14 +4850,15 @@
         <v>67</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="21"/>
-      <c r="S5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="21"/>
       <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4562,14 +4884,15 @@
         <v>67</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="21"/>
-      <c r="S6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="21"/>
       <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4595,15 +4918,16 @@
         <v>67</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4629,8 +4953,9 @@
         <v>79</v>
       </c>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4656,8 +4981,9 @@
         <v>79</v>
       </c>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4683,8 +5009,9 @@
         <v>79</v>
       </c>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4710,8 +5037,9 @@
         <v>79</v>
       </c>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4737,8 +5065,9 @@
         <v>79</v>
       </c>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4764,8 +5093,9 @@
         <v>79</v>
       </c>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4791,8 +5121,9 @@
         <v>79</v>
       </c>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4818,8 +5149,9 @@
         <v>79</v>
       </c>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4845,8 +5177,9 @@
         <v>79</v>
       </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4872,8 +5205,9 @@
         <v>79</v>
       </c>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4899,8 +5233,9 @@
         <v>79</v>
       </c>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4926,8 +5261,9 @@
         <v>79</v>
       </c>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4953,8 +5289,9 @@
         <v>79</v>
       </c>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4980,8 +5317,9 @@
         <v>79</v>
       </c>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5007,16 +5345,17 @@
       <c r="I22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="M22" s="2" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="15"/>
+      <c r="N22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5042,16 +5381,17 @@
       <c r="I23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="M23" s="2" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="15"/>
+      <c r="N23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5077,16 +5417,17 @@
       <c r="I24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="M24" s="12" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="15"/>
+      <c r="N24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="O24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5112,15 +5453,16 @@
       <c r="I25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="M25" s="2" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="15"/>
+      <c r="N25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5146,15 +5488,16 @@
       <c r="I26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="M26" s="2" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="15"/>
+      <c r="N26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5180,15 +5523,16 @@
       <c r="I27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="M27" s="2" t="s">
+      <c r="J27" s="5"/>
+      <c r="K27" s="15"/>
+      <c r="N27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5214,15 +5558,16 @@
       <c r="I28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="M28" s="2" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="22"/>
+      <c r="N28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5248,9 +5593,10 @@
       <c r="I29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="5"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5276,9 +5622,10 @@
       <c r="I30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="5"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5304,11 +5651,12 @@
       <c r="I31" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="N31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="15"/>
+      <c r="K31" s="22"/>
+      <c r="O31" s="12"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5334,11 +5682,12 @@
       <c r="I32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="N32" s="12"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="5"/>
+      <c r="K32" s="22"/>
+      <c r="O32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5364,10 +5713,11 @@
       <c r="I33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="5"/>
+      <c r="K33" s="22"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5393,9 +5743,10 @@
       <c r="I34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="5"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5421,9 +5772,10 @@
       <c r="I35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="5"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5449,9 +5801,10 @@
       <c r="I36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="5"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5477,9 +5830,10 @@
       <c r="I37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J37" s="5"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5505,8 +5859,9 @@
       <c r="I38" s="15" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5531,8 +5886,9 @@
       <c r="I39" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5557,8 +5913,9 @@
       <c r="I40" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -5583,8 +5940,9 @@
       <c r="I41" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -5609,8 +5967,9 @@
       <c r="I42" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -5635,8 +5994,9 @@
       <c r="I43" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -5661,8 +6021,9 @@
       <c r="I44" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -5687,8 +6048,9 @@
       <c r="I45" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -5713,8 +6075,9 @@
       <c r="I46" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -5739,8 +6102,9 @@
       <c r="I47" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -5765,8 +6129,9 @@
       <c r="I48" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -5791,8 +6156,9 @@
       <c r="I49" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -5817,8 +6183,9 @@
       <c r="I50" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -5843,8 +6210,9 @@
       <c r="I51" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -5869,8 +6237,9 @@
       <c r="I52" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -5895,8 +6264,9 @@
       <c r="I53" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -5921,8 +6291,9 @@
       <c r="I54" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -5947,8 +6318,9 @@
       <c r="I55" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -5973,8 +6345,9 @@
       <c r="I56" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -5999,8 +6372,9 @@
       <c r="I57" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -6025,8 +6399,9 @@
       <c r="I58" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -6051,8 +6426,9 @@
       <c r="I59" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -6077,8 +6453,9 @@
       <c r="I60" s="5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -6103,8 +6480,9 @@
       <c r="I61" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -6129,8 +6507,9 @@
       <c r="I62" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -6155,8 +6534,9 @@
       <c r="I63" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48">
         <v>63</v>
       </c>
@@ -6181,8 +6561,9 @@
       <c r="I64" s="50" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48">
         <v>64</v>
       </c>
@@ -6207,8 +6588,9 @@
       <c r="I65" s="50" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J65" s="50"/>
+    </row>
+    <row r="66" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="48">
         <v>65</v>
       </c>
@@ -6233,8 +6615,9 @@
       <c r="I66" s="50" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J66" s="50"/>
+    </row>
+    <row r="67" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="48">
         <v>66</v>
       </c>
@@ -6259,8 +6642,9 @@
       <c r="I67" s="50" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J67" s="50"/>
+    </row>
+    <row r="68" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="48">
         <v>67</v>
       </c>
@@ -6285,8 +6669,9 @@
       <c r="I68" s="50" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="50"/>
+    </row>
+    <row r="69" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="48">
         <v>68</v>
       </c>
@@ -6311,8 +6696,9 @@
       <c r="I69" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="50"/>
+    </row>
+    <row r="70" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="48">
         <v>69</v>
       </c>
@@ -6337,8 +6723,9 @@
       <c r="I70" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="50"/>
+    </row>
+    <row r="71" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -6363,8 +6750,9 @@
       <c r="I71" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40">
         <v>71</v>
       </c>
@@ -6389,8 +6777,9 @@
       <c r="I72" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="48">
         <v>72</v>
       </c>
@@ -6415,8 +6804,9 @@
       <c r="I73" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="50"/>
+    </row>
+    <row r="74" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="48">
         <v>73</v>
       </c>
@@ -6441,8 +6831,9 @@
       <c r="I74" s="50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="50"/>
+    </row>
+    <row r="75" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -6467,8 +6858,9 @@
       <c r="I75" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -6493,8 +6885,9 @@
       <c r="I76" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -6519,8 +6912,9 @@
       <c r="I77" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="40">
         <v>77</v>
       </c>
@@ -6545,8 +6939,9 @@
       <c r="I78" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="40">
         <v>78</v>
       </c>
@@ -6571,8 +6966,9 @@
       <c r="I79" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -6597,8 +6993,9 @@
       <c r="I80" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -6623,8 +7020,9 @@
       <c r="I81" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -6649,8 +7047,9 @@
       <c r="I82" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J82" s="41"/>
+    </row>
+    <row r="83" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -6675,8 +7074,9 @@
       <c r="I83" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -6701,8 +7101,9 @@
       <c r="I84" s="41" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J84" s="41"/>
+    </row>
+    <row r="85" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="40">
         <v>84</v>
       </c>
@@ -6727,8 +7128,9 @@
       <c r="I85" s="41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="40">
         <v>85</v>
       </c>
@@ -6753,8 +7155,9 @@
       <c r="I86" s="41" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -6779,8 +7182,9 @@
       <c r="I87" s="41" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J87" s="41"/>
+    </row>
+    <row r="88" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -6805,8 +7209,9 @@
       <c r="I88" s="41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J88" s="41"/>
+    </row>
+    <row r="89" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -6831,8 +7236,9 @@
       <c r="I89" s="41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="40">
         <v>89</v>
       </c>
@@ -6857,8 +7263,9 @@
       <c r="I90" s="41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J90" s="41"/>
+    </row>
+    <row r="91" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="40">
         <v>90</v>
       </c>
@@ -6883,8 +7290,9 @@
       <c r="I91" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J91" s="41"/>
+    </row>
+    <row r="92" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="40">
         <v>91</v>
       </c>
@@ -6909,8 +7317,9 @@
       <c r="I92" s="41" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J92" s="41"/>
+    </row>
+    <row r="93" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="40">
         <v>92</v>
       </c>
@@ -6935,8 +7344,9 @@
       <c r="I93" s="41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J93" s="41"/>
+    </row>
+    <row r="94" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -6961,8 +7371,9 @@
       <c r="I94" s="41" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J94" s="41"/>
+    </row>
+    <row r="95" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40">
         <v>94</v>
       </c>
@@ -6987,8 +7398,9 @@
       <c r="I95" s="41" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40">
         <v>95</v>
       </c>
@@ -7013,8 +7425,9 @@
       <c r="I96" s="41" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="40">
         <v>96</v>
       </c>
@@ -7042,8 +7455,9 @@
       <c r="I97" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J97" s="41"/>
+    </row>
+    <row r="98" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="40">
         <v>97</v>
       </c>
@@ -7071,8 +7485,9 @@
       <c r="I98" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J98" s="41"/>
+    </row>
+    <row r="99" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="40">
         <v>98</v>
       </c>
@@ -7100,8 +7515,9 @@
       <c r="I99" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J99" s="41"/>
+    </row>
+    <row r="100" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="40">
         <v>99</v>
       </c>
@@ -7129,8 +7545,9 @@
       <c r="I100" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="40">
         <v>100</v>
       </c>
@@ -7158,8 +7575,9 @@
       <c r="I101" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J101" s="41"/>
+    </row>
+    <row r="102" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="40">
         <v>101</v>
       </c>
@@ -7187,8 +7605,9 @@
       <c r="I102" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J102" s="41"/>
+    </row>
+    <row r="103" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40">
         <v>102</v>
       </c>
@@ -7216,8 +7635,9 @@
       <c r="I103" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="40">
         <v>103</v>
       </c>
@@ -7245,8 +7665,9 @@
       <c r="I104" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="40">
         <v>104</v>
       </c>
@@ -7274,8 +7695,9 @@
       <c r="I105" s="41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40">
         <v>105</v>
       </c>
@@ -7300,8 +7722,9 @@
       <c r="I106" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40">
         <v>106</v>
       </c>
@@ -7326,8 +7749,9 @@
       <c r="I107" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="40">
         <v>107</v>
       </c>
@@ -7352,8 +7776,9 @@
       <c r="I108" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J108" s="41"/>
+    </row>
+    <row r="109" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="40">
         <v>108</v>
       </c>
@@ -7378,8 +7803,9 @@
       <c r="I109" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J109" s="41"/>
+    </row>
+    <row r="110" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="40">
         <v>109</v>
       </c>
@@ -7404,8 +7830,9 @@
       <c r="I110" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J110" s="41"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="40">
         <v>110</v>
       </c>
@@ -7430,8 +7857,9 @@
       <c r="I111" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J111" s="41"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="40">
         <v>111</v>
       </c>
@@ -7456,8 +7884,9 @@
       <c r="I112" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J112" s="41"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="40">
         <v>112</v>
       </c>
@@ -7482,8 +7911,9 @@
       <c r="I113" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J113" s="41"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="40">
         <v>113</v>
       </c>
@@ -7508,8 +7938,9 @@
       <c r="I114" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J114" s="41"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="40">
         <v>114</v>
       </c>
@@ -7534,8 +7965,9 @@
       <c r="I115" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="40">
         <v>115</v>
       </c>
@@ -7560,8 +7992,9 @@
       <c r="I116" s="41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J116" s="41"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="40">
         <v>116</v>
       </c>
@@ -7586,8 +8019,9 @@
       <c r="I117" s="41" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J117" s="41"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="40">
         <v>117</v>
       </c>
@@ -7615,8 +8049,9 @@
       <c r="I118" s="42" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J118" s="42"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="40">
         <v>118</v>
       </c>
@@ -7644,8 +8079,9 @@
       <c r="I119" s="42" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J119" s="42"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="40">
         <v>119</v>
       </c>
@@ -7673,8 +8109,9 @@
       <c r="I120" s="42" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J120" s="42"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="40">
         <v>120</v>
       </c>
@@ -7700,7 +8137,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="40">
         <v>121</v>
       </c>
@@ -7726,7 +8163,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="40">
         <v>122</v>
       </c>
@@ -7751,8 +8188,9 @@
       <c r="I123" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J123" s="42"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="40">
         <v>123</v>
       </c>
@@ -7777,8 +8215,9 @@
       <c r="I124" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J124" s="42"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="40">
         <v>124</v>
       </c>
@@ -7803,8 +8242,9 @@
       <c r="I125" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J125" s="42"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="40">
         <v>125</v>
       </c>
@@ -7829,8 +8269,9 @@
       <c r="I126" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J126" s="42"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="40">
         <v>126</v>
       </c>
@@ -7855,8 +8296,9 @@
       <c r="I127" s="42" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="40">
         <v>127</v>
       </c>
@@ -7881,8 +8323,9 @@
       <c r="I128" s="42" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J128" s="42"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="40">
         <v>128</v>
       </c>
@@ -7907,8 +8350,9 @@
       <c r="I129" s="42" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J129" s="42"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="40">
         <v>129</v>
       </c>
@@ -7934,7 +8378,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="40">
         <v>130</v>
       </c>
@@ -7956,11 +8400,11 @@
       <c r="H131" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I131" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="40">
         <v>131</v>
       </c>
@@ -7985,8 +8429,9 @@
       <c r="I132" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J132" s="42"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="40">
         <v>132</v>
       </c>
@@ -8011,8 +8456,9 @@
       <c r="I133" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J133" s="42"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="40">
         <v>133</v>
       </c>
@@ -8037,8 +8483,9 @@
       <c r="I134" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J134" s="42"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="40">
         <v>134</v>
       </c>
@@ -8063,8 +8510,9 @@
       <c r="I135" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J135" s="42"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="40">
         <v>135</v>
       </c>
@@ -8089,8 +8537,9 @@
       <c r="I136" s="42" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J136" s="42"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="40">
         <v>136</v>
       </c>
@@ -8115,8 +8564,9 @@
       <c r="I137" s="42" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J137" s="42"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="40">
         <v>137</v>
       </c>
@@ -8141,8 +8591,9 @@
       <c r="I138" s="42" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J138" s="42"/>
+    </row>
+    <row r="139" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="53">
         <v>138</v>
       </c>
@@ -8167,8 +8618,9 @@
       <c r="I139" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J139" s="54"/>
+    </row>
+    <row r="140" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="53">
         <v>139</v>
       </c>
@@ -8193,8 +8645,9 @@
       <c r="I140" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J140" s="54"/>
+    </row>
+    <row r="141" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="53">
         <v>140</v>
       </c>
@@ -8219,8 +8672,9 @@
       <c r="I141" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J141" s="54"/>
+    </row>
+    <row r="142" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="53">
         <v>141</v>
       </c>
@@ -8245,8 +8699,9 @@
       <c r="I142" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J142" s="54"/>
+    </row>
+    <row r="143" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="53">
         <v>142</v>
       </c>
@@ -8271,8 +8726,9 @@
       <c r="I143" s="54" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J143" s="54"/>
+    </row>
+    <row r="144" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="53">
         <v>143</v>
       </c>
@@ -8297,8 +8753,9 @@
       <c r="I144" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J144" s="54"/>
+    </row>
+    <row r="145" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="53">
         <v>144</v>
       </c>
@@ -8323,8 +8780,9 @@
       <c r="I145" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J145" s="54"/>
+    </row>
+    <row r="146" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="53">
         <v>145</v>
       </c>
@@ -8349,8 +8807,9 @@
       <c r="I146" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J146" s="54"/>
+    </row>
+    <row r="147" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="53">
         <v>146</v>
       </c>
@@ -8375,8 +8834,9 @@
       <c r="I147" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J147" s="54"/>
+    </row>
+    <row r="148" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="53">
         <v>147</v>
       </c>
@@ -8401,8 +8861,9 @@
       <c r="I148" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J148" s="54"/>
+    </row>
+    <row r="149" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="53">
         <v>148</v>
       </c>
@@ -8427,8 +8888,9 @@
       <c r="I149" s="54" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J149" s="54"/>
+    </row>
+    <row r="150" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="53">
         <v>149</v>
       </c>
@@ -8453,8 +8915,9 @@
       <c r="I150" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J150" s="54"/>
+    </row>
+    <row r="151" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="53">
         <v>150</v>
       </c>
@@ -8479,8 +8942,9 @@
       <c r="I151" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J151" s="54"/>
+    </row>
+    <row r="152" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="53">
         <v>151</v>
       </c>
@@ -8505,8 +8969,9 @@
       <c r="I152" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J152" s="54"/>
+    </row>
+    <row r="153" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="53">
         <v>152</v>
       </c>
@@ -8531,8 +8996,9 @@
       <c r="I153" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J153" s="54"/>
+    </row>
+    <row r="154" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="53">
         <v>153</v>
       </c>
@@ -8557,8 +9023,9 @@
       <c r="I154" s="54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J154" s="54"/>
+    </row>
+    <row r="155" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="53">
         <v>154</v>
       </c>
@@ -8583,8 +9050,9 @@
       <c r="I155" s="54" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J155" s="54"/>
+    </row>
+    <row r="156" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="53">
         <v>155</v>
       </c>
@@ -8609,8 +9077,9 @@
       <c r="I156" s="54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J156" s="54"/>
+    </row>
+    <row r="157" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="53">
         <v>156</v>
       </c>
@@ -8635,8 +9104,9 @@
       <c r="I157" s="54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J157" s="54"/>
+    </row>
+    <row r="158" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="53">
         <v>157</v>
       </c>
@@ -8661,8 +9131,9 @@
       <c r="I158" s="54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J158" s="54"/>
+    </row>
+    <row r="159" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="53">
         <v>158</v>
       </c>
@@ -8687,8 +9158,9 @@
       <c r="I159" s="54" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J159" s="54"/>
+    </row>
+    <row r="160" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="53">
         <v>159</v>
       </c>
@@ -8713,8 +9185,9 @@
       <c r="I160" s="54" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J160" s="54"/>
+    </row>
+    <row r="161" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="53">
         <v>160</v>
       </c>
@@ -8739,8 +9212,9 @@
       <c r="I161" s="54" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J161" s="54"/>
+    </row>
+    <row r="162" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="53">
         <v>161</v>
       </c>
@@ -8765,8 +9239,9 @@
       <c r="I162" s="54" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J162" s="54"/>
+    </row>
+    <row r="163" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="53">
         <v>162</v>
       </c>
@@ -8791,8 +9266,9 @@
       <c r="I163" s="54" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J163" s="54"/>
+    </row>
+    <row r="164" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="53">
         <v>163</v>
       </c>
@@ -8817,8 +9293,9 @@
       <c r="I164" s="54" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J164" s="54"/>
+    </row>
+    <row r="165" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="53">
         <v>164</v>
       </c>
@@ -8843,8 +9320,9 @@
       <c r="I165" s="54" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J165" s="54"/>
+    </row>
+    <row r="166" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="53">
         <v>165</v>
       </c>
@@ -8869,8 +9347,9 @@
       <c r="I166" s="54" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J166" s="54"/>
+    </row>
+    <row r="167" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="53">
         <v>166</v>
       </c>
@@ -8895,8 +9374,9 @@
       <c r="I167" s="54" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J167" s="54"/>
+    </row>
+    <row r="168" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="53">
         <v>167</v>
       </c>
@@ -8921,8 +9401,9 @@
       <c r="I168" s="54" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="54"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -8947,8 +9428,9 @@
       <c r="I169" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="42"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -8973,8 +9455,9 @@
       <c r="I170" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="42"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -8999,8 +9482,9 @@
       <c r="I171" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="42"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -9025,8 +9509,9 @@
       <c r="I172" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="42"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -9051,8 +9536,9 @@
       <c r="I173" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="42"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -9077,8 +9563,9 @@
       <c r="I174" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="42"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -9095,7 +9582,7 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="H175" s="42" t="s">
         <v>471</v>
@@ -9103,8 +9590,9 @@
       <c r="I175" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="42"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -9129,8 +9617,9 @@
       <c r="I176" s="42" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="42"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -9154,6 +9643,163 @@
       </c>
       <c r="I177" s="42" t="s">
         <v>474</v>
+      </c>
+      <c r="J177" s="42"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" s="13">
+        <v>1000776</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="H178" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="J178" s="42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" s="13">
+        <v>1000777</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="H179" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="J179" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+      <c r="B180" s="13">
+        <v>1000778</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="H180" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="J180" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" s="13">
+        <v>1000779</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="H181" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="I181" s="42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+      <c r="B182" s="13">
+        <v>1000780</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="H182" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="I182" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+      <c r="B183" s="13">
+        <v>1000781</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="H183" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="I183" s="42" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/config_9.28/activity_ty_task_config.xlsx
+++ b/config_9.28/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="507">
   <si>
     <t>index|索引</t>
   </si>
@@ -3081,53 +3081,49 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>下载并登陆新游"捕鱼奥秘"</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下载并登陆新游"欢乐天天捕鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <r>
+      <t>早餐福利（9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-10:00在线)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐福利（12:00-13:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐福利（18:00-19:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>link|链接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>"</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>早餐福利（9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:00-10:00在线)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐福利（12:00-13:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐福利（18:00-19:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>link|链接</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -3143,23 +3139,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -3258,6 +3237,18 @@
   </si>
   <si>
     <t>179,180,181,182</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”捕鱼奥秘“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游“欢乐天天捕鱼”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”欢乐天天捕鱼“</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4212,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4572,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4592,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4612,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4626,9 +4617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
+      <selection pane="bottomLeft" activeCell="F189" sqref="F189:F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4684,7 +4675,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>52</v>
@@ -9582,7 +9573,7 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H175" s="42" t="s">
         <v>471</v>
@@ -9657,19 +9648,19 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H178" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J178" s="42" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -9683,19 +9674,19 @@
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
       </c>
       <c r="G179" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H179" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J179" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -9709,19 +9700,19 @@
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H180" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J180" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -9735,19 +9726,19 @@
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H181" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="H181" s="42" t="s">
-        <v>498</v>
-      </c>
       <c r="I181" s="42" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -9761,19 +9752,19 @@
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I182" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -9787,19 +9778,19 @@
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H183" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="I183" s="42" t="s">
         <v>500</v>
-      </c>
-      <c r="I183" s="42" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/config_9.28/activity_ty_task_config.xlsx
+++ b/config_9.28/activity_ty_task_config.xlsx
@@ -4619,7 +4619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189:F190"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9746,7 +9746,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="13">
-        <v>1000780</v>
+        <v>1000779</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -9772,7 +9772,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="13">
-        <v>1000781</v>
+        <v>1000779</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
